--- a/NEW HR/PEREÑA, VERGILIO.xlsx
+++ b/NEW HR/PEREÑA, VERGILIO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>ANNIV 3/24/2023</t>
+  </si>
+  <si>
+    <t>6/5,6,7/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/8/2023 B-DAY. L. </t>
   </si>
 </sst>
 </file>
@@ -2999,10 +3005,10 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A41" activePane="bottomLeft"/>
-      <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,7 +3171,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>36.25</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3175,7 +3181,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4201,15 +4207,19 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45017</v>
+      </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4217,7 +4227,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>45047</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -4233,7 +4245,9 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45078</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -5431,10 +5445,10 @@
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
-      <selection activeCell="C68" sqref="C68:C69"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A32" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5597,7 +5611,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.516999999999999</v>
+        <v>15.516999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6504,7 +6518,9 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45017</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -6520,7 +6536,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45047</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -6536,8 +6554,12 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
@@ -6549,13 +6571,19 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>3</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -6565,7 +6593,9 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>

--- a/NEW HR/PEREÑA, VERGILIO.xlsx
+++ b/NEW HR/PEREÑA, VERGILIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B477D-D541-424D-BAFE-630F9ACFAAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,18 +28,10 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -290,7 +283,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -672,17 +665,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -692,6 +682,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,7 +1215,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1258,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1382,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1448,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1511,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1609,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1668,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1733,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1776,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1851,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2037,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2103,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2161,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2227,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2290,7 +2283,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2358,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2401,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2467,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2523,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2602,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2626,25 +2619,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2656,25 +2649,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2981,7 +2974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2991,7 +2984,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2999,34 +2992,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3038,16 +3031,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3056,18 +3049,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>43647</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3078,18 +3071,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3097,7 +3090,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3110,24 +3103,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3171,7 +3164,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>37.5</v>
+        <v>38.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3181,12 +3174,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3208,7 +3201,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3228,7 +3221,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3248,7 +3241,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3268,7 +3261,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3288,7 +3281,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3308,7 +3301,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3328,7 +3321,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -3346,7 +3339,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3366,7 +3359,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3386,7 +3379,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3406,7 +3399,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3426,7 +3419,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3446,7 +3439,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3466,7 +3459,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3486,7 +3479,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="49"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3506,7 +3499,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3532,7 +3525,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3552,7 +3545,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3572,7 +3565,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3596,7 +3589,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3614,7 +3607,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3634,7 +3627,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3654,7 +3647,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3674,7 +3667,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3694,7 +3687,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3714,7 +3707,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3734,7 +3727,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3754,7 +3747,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -3774,7 +3767,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -3794,7 +3787,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -3814,7 +3807,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -3834,7 +3827,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44531</v>
       </c>
@@ -3858,7 +3851,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
@@ -3876,7 +3869,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44562</v>
       </c>
@@ -3896,7 +3889,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44593</v>
       </c>
@@ -3916,7 +3909,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44621</v>
       </c>
@@ -3936,7 +3929,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="49"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44652</v>
       </c>
@@ -3956,7 +3949,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44682</v>
       </c>
@@ -3976,7 +3969,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44713</v>
       </c>
@@ -3996,7 +3989,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44743</v>
       </c>
@@ -4016,7 +4009,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44774</v>
       </c>
@@ -4036,7 +4029,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44805</v>
       </c>
@@ -4056,7 +4049,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44835</v>
       </c>
@@ -4076,7 +4069,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44866</v>
       </c>
@@ -4096,7 +4089,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44896</v>
       </c>
@@ -4120,7 +4113,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>72</v>
       </c>
@@ -4138,7 +4131,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44927</v>
       </c>
@@ -4158,7 +4151,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44958</v>
       </c>
@@ -4184,7 +4177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44986</v>
       </c>
@@ -4206,7 +4199,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>45017</v>
       </c>
@@ -4226,25 +4219,27 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>45047</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>45078</v>
       </c>
@@ -4262,7 +4257,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4278,7 +4273,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4294,7 +4289,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4310,7 +4305,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4326,7 +4321,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4342,7 +4337,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4358,7 +4353,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4374,7 +4369,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4390,7 +4385,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4406,7 +4401,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4422,7 +4417,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4438,7 +4433,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4454,7 +4449,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4470,7 +4465,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4486,7 +4481,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4502,7 +4497,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4518,7 +4513,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4534,7 +4529,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4550,7 +4545,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4566,7 +4561,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4582,7 +4577,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4598,7 +4593,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4614,7 +4609,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4630,7 +4625,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4646,7 +4641,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4662,7 +4657,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4678,7 +4673,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4694,7 +4689,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4710,7 +4705,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4726,7 +4721,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4742,7 +4737,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4758,7 +4753,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4774,7 +4769,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4790,7 +4785,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4806,7 +4801,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4822,7 +4817,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4838,7 +4833,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4854,7 +4849,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4870,7 +4865,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4886,7 +4881,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4902,7 +4897,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4918,7 +4913,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4934,7 +4929,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4950,7 +4945,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4966,7 +4961,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4982,7 +4977,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4998,7 +4993,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5014,7 +5009,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5030,7 +5025,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5046,7 +5041,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5062,7 +5057,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5078,7 +5073,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5094,7 +5089,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5110,7 +5105,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5126,7 +5121,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5142,7 +5137,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5158,7 +5153,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5174,7 +5169,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5190,7 +5185,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5206,7 +5201,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5222,7 +5217,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5238,7 +5233,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5254,7 +5249,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5270,7 +5265,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5286,7 +5281,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5302,7 +5297,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5318,7 +5313,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5334,7 +5329,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5350,7 +5345,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5366,7 +5361,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5382,7 +5377,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5400,23 +5395,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5439,34 +5434,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A32" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5478,16 +5473,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5496,18 +5491,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>43647</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5518,18 +5513,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5537,7 +5532,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5550,24 +5545,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5602,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5626,7 +5621,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5648,7 +5643,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43709</v>
       </c>
@@ -5672,7 +5667,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43739</v>
       </c>
@@ -5696,7 +5691,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -5718,7 +5713,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -5742,7 +5737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43800</v>
       </c>
@@ -5766,7 +5761,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>50</v>
@@ -5788,7 +5783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -5806,7 +5801,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -5830,7 +5825,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>55</v>
@@ -5850,7 +5845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -5896,7 +5891,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43983</v>
       </c>
@@ -5920,7 +5915,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44013</v>
       </c>
@@ -5944,7 +5939,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44044</v>
       </c>
@@ -5968,7 +5963,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44075</v>
       </c>
@@ -5992,7 +5987,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44105</v>
       </c>
@@ -6016,7 +6011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>50</v>
@@ -6038,7 +6033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -6060,7 +6055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -6084,7 +6079,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -6102,7 +6097,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -6150,7 +6145,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>49</v>
@@ -6172,7 +6167,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44378</v>
       </c>
@@ -6196,7 +6191,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44531</v>
       </c>
@@ -6220,7 +6215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>48</v>
       </c>
@@ -6238,7 +6233,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44562</v>
       </c>
@@ -6262,7 +6257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44593</v>
       </c>
@@ -6286,7 +6281,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44621</v>
       </c>
@@ -6310,7 +6305,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44652</v>
       </c>
@@ -6334,7 +6329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44713</v>
       </c>
@@ -6356,7 +6351,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>49</v>
@@ -6378,7 +6373,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44835</v>
       </c>
@@ -6402,7 +6397,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -6422,7 +6417,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>72</v>
       </c>
@@ -6437,7 +6432,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44927</v>
       </c>
@@ -6458,7 +6453,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44958</v>
       </c>
@@ -6479,7 +6474,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44986</v>
       </c>
@@ -6500,7 +6495,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>59</v>
@@ -6517,7 +6512,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45017</v>
       </c>
@@ -6535,7 +6530,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45047</v>
       </c>
@@ -6553,7 +6548,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45078</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -6597,7 +6592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6613,7 +6608,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6629,7 +6624,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6645,7 +6640,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6661,7 +6656,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6677,7 +6672,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6693,7 +6688,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6709,7 +6704,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6725,7 +6720,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6741,7 +6736,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6757,7 +6752,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6773,7 +6768,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6789,7 +6784,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6805,7 +6800,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6821,7 +6816,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6837,7 +6832,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6853,7 +6848,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6869,7 +6864,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6885,7 +6880,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6901,7 +6896,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6917,7 +6912,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6933,7 +6928,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6949,7 +6944,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6965,7 +6960,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6981,7 +6976,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6997,7 +6992,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7013,7 +7008,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7029,7 +7024,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7045,7 +7040,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7061,7 +7056,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7077,7 +7072,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7093,7 +7088,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7109,7 +7104,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7125,7 +7120,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7141,7 +7136,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7157,7 +7152,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7173,7 +7168,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7189,7 +7184,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7205,7 +7200,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7221,7 +7216,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7237,7 +7232,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7253,7 +7248,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7269,7 +7264,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7285,7 +7280,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7301,7 +7296,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7317,7 +7312,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7333,7 +7328,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7349,7 +7344,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7365,7 +7360,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7381,7 +7376,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7397,7 +7392,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7413,7 +7408,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7429,7 +7424,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7445,7 +7440,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7461,7 +7456,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7477,7 +7472,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7493,7 +7488,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7509,7 +7504,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7525,7 +7520,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7541,7 +7536,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7557,7 +7552,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7573,7 +7568,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7589,7 +7584,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7605,7 +7600,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7621,7 +7616,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7637,7 +7632,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7653,7 +7648,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7669,7 +7664,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7685,7 +7680,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7701,7 +7696,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7717,7 +7712,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -7748,10 +7743,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7774,28 +7769,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7808,7 +7803,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7837,7 +7832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>24.516999999999999</v>
       </c>
@@ -7861,17 +7856,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7892,7 +7887,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7919,7 +7914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7945,7 +7940,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7971,7 +7966,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7997,7 +7992,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8023,7 +8018,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8049,7 +8044,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8075,7 +8070,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8101,7 +8096,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8121,7 +8116,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8141,7 +8136,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8161,7 +8156,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8182,7 +8177,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8203,7 +8198,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8224,7 +8219,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8245,7 +8240,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8266,7 +8261,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8287,7 +8282,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8308,7 +8303,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8329,7 +8324,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8350,7 +8345,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8371,7 +8366,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8392,7 +8387,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8413,7 +8408,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8434,7 +8429,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8455,7 +8450,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8476,7 +8471,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8497,7 +8492,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8518,7 +8513,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8539,7 +8534,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8560,7 +8555,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8581,7 +8576,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8590,7 +8585,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8599,7 +8594,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8608,7 +8603,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8617,7 +8612,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8626,7 +8621,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8635,7 +8630,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8644,7 +8639,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8653,7 +8648,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8662,7 +8657,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8671,7 +8666,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8680,7 +8675,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8689,7 +8684,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8698,7 +8693,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8707,7 +8702,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8716,7 +8711,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8725,7 +8720,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8734,7 +8729,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8743,7 +8738,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8752,7 +8747,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8761,7 +8756,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8770,7 +8765,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8779,7 +8774,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8788,7 +8783,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8797,7 +8792,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8806,7 +8801,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8815,7 +8810,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8824,7 +8819,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8833,7 +8828,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8842,7 +8837,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEREÑA, VERGILIO.xlsx
+++ b/NEW HR/PEREÑA, VERGILIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B477D-D541-424D-BAFE-630F9ACFAAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -665,14 +664,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -682,9 +684,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,7 +1214,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1257,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1321,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1381,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1447,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1510,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1608,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1667,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1732,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1775,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1850,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2036,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2102,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2160,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2227,7 +2226,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2282,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2357,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2400,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2466,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2522,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2601,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2619,25 +2618,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2649,25 +2648,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2974,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2984,7 +2983,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2992,34 +2991,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60:C61"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3031,16 +3030,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3049,18 +3048,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>43647</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3071,18 +3070,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3090,7 +3089,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3103,24 +3102,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3164,7 +3163,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>38.75</v>
+        <v>43.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3174,12 +3173,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>58.75</v>
+        <v>63.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3201,7 +3200,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3221,7 +3220,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3241,7 +3240,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3301,7 +3300,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3321,7 +3320,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -3339,7 +3338,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3379,7 +3378,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3399,7 +3398,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3419,7 +3418,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3479,7 +3478,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="49"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3499,7 +3498,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3545,7 +3544,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3565,7 +3564,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3589,7 +3588,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3607,7 +3606,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3627,7 +3626,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3647,7 +3646,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3707,7 +3706,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3727,7 +3726,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3747,7 +3746,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -3807,7 +3806,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44531</v>
       </c>
@@ -3851,7 +3850,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
@@ -3869,7 +3868,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44562</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44593</v>
       </c>
@@ -3909,7 +3908,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44621</v>
       </c>
@@ -3929,7 +3928,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="49"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44652</v>
       </c>
@@ -3949,7 +3948,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44682</v>
       </c>
@@ -3969,7 +3968,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44713</v>
       </c>
@@ -3989,7 +3988,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44743</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44774</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44805</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44835</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44866</v>
       </c>
@@ -4089,7 +4088,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44896</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>72</v>
       </c>
@@ -4131,7 +4130,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44927</v>
       </c>
@@ -4151,7 +4150,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44958</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44986</v>
       </c>
@@ -4199,7 +4198,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45017</v>
       </c>
@@ -4219,7 +4218,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45047</v>
       </c>
@@ -4239,74 +4238,90 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45078</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>45108</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>45139</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>45170</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
+        <v>45200</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -4321,8 +4336,10 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="40">
+        <v>45231</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -4337,8 +4354,10 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>45261</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4353,7 +4372,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4369,7 +4388,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4385,7 +4404,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4401,7 +4420,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4417,7 +4436,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4433,7 +4452,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4449,7 +4468,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4465,7 +4484,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4481,7 +4500,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4497,7 +4516,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4513,7 +4532,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4529,7 +4548,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4545,7 +4564,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4561,7 +4580,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4577,7 +4596,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4593,7 +4612,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4609,7 +4628,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4625,7 +4644,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4641,7 +4660,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4657,7 +4676,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4673,7 +4692,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4689,7 +4708,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4705,7 +4724,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4721,7 +4740,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4737,7 +4756,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4753,7 +4772,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4769,7 +4788,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4785,7 +4804,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4801,7 +4820,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4817,7 +4836,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4833,7 +4852,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4849,7 +4868,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4865,7 +4884,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4881,7 +4900,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4897,7 +4916,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4913,7 +4932,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4929,7 +4948,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4945,7 +4964,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4961,7 +4980,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4977,7 +4996,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4993,7 +5012,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5009,7 +5028,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5025,7 +5044,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5041,7 +5060,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5057,7 +5076,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5073,7 +5092,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5089,7 +5108,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5105,7 +5124,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5121,7 +5140,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5137,7 +5156,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5153,7 +5172,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5169,7 +5188,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5185,7 +5204,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5201,7 +5220,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5217,7 +5236,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5233,7 +5252,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5249,7 +5268,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5265,7 +5284,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5281,7 +5300,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5297,7 +5316,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5313,7 +5332,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5329,7 +5348,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5345,7 +5364,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5361,7 +5380,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5377,7 +5396,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -5395,23 +5414,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5434,34 +5453,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A47" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5473,16 +5492,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5491,18 +5510,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>43647</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5513,18 +5532,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5532,7 +5551,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5545,24 +5564,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5597,7 +5616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5616,12 +5635,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5643,7 +5662,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43709</v>
       </c>
@@ -5667,7 +5686,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43739</v>
       </c>
@@ -5691,7 +5710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -5713,7 +5732,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -5737,7 +5756,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43800</v>
       </c>
@@ -5761,7 +5780,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>50</v>
@@ -5783,7 +5802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -5801,7 +5820,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -5825,7 +5844,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>55</v>
@@ -5845,7 +5864,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -5869,7 +5888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -5891,7 +5910,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43983</v>
       </c>
@@ -5915,7 +5934,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44013</v>
       </c>
@@ -5939,7 +5958,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44044</v>
       </c>
@@ -5963,7 +5982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44075</v>
       </c>
@@ -5987,7 +6006,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44105</v>
       </c>
@@ -6011,7 +6030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>50</v>
@@ -6033,7 +6052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -6055,7 +6074,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -6079,7 +6098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -6097,7 +6116,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -6121,7 +6140,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -6145,7 +6164,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>49</v>
@@ -6167,7 +6186,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44378</v>
       </c>
@@ -6191,7 +6210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44531</v>
       </c>
@@ -6215,7 +6234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>48</v>
       </c>
@@ -6233,7 +6252,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44562</v>
       </c>
@@ -6257,7 +6276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44593</v>
       </c>
@@ -6281,7 +6300,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44621</v>
       </c>
@@ -6305,7 +6324,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44652</v>
       </c>
@@ -6329,7 +6348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44713</v>
       </c>
@@ -6351,7 +6370,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>49</v>
@@ -6373,7 +6392,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44835</v>
       </c>
@@ -6397,7 +6416,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -6417,7 +6436,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>72</v>
       </c>
@@ -6432,7 +6451,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44927</v>
       </c>
@@ -6453,7 +6472,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44958</v>
       </c>
@@ -6474,7 +6493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44986</v>
       </c>
@@ -6495,7 +6514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>59</v>
@@ -6512,7 +6531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45017</v>
       </c>
@@ -6530,7 +6549,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45047</v>
       </c>
@@ -6548,7 +6567,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45078</v>
       </c>
@@ -6570,7 +6589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -6592,9 +6611,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
@@ -6603,12 +6626,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H54" s="39"/>
+      <c r="H54" s="39">
+        <v>1</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="49">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6624,7 +6651,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6640,7 +6667,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6656,7 +6683,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6672,7 +6699,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6688,7 +6715,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6704,7 +6731,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6720,7 +6747,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6736,7 +6763,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6752,7 +6779,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6768,7 +6795,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6784,7 +6811,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6800,7 +6827,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6816,7 +6843,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6832,7 +6859,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6848,7 +6875,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6864,7 +6891,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6880,7 +6907,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6896,7 +6923,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6912,7 +6939,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6928,7 +6955,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6944,7 +6971,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6960,7 +6987,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6976,7 +7003,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6992,7 +7019,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7008,7 +7035,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7024,7 +7051,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7040,7 +7067,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7056,7 +7083,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7072,7 +7099,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7088,7 +7115,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7104,7 +7131,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7120,7 +7147,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7136,7 +7163,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7152,7 +7179,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7168,7 +7195,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7184,7 +7211,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7200,7 +7227,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7216,7 +7243,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7232,7 +7259,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7248,7 +7275,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7264,7 +7291,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7280,7 +7307,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7296,7 +7323,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7312,7 +7339,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7328,7 +7355,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7344,7 +7371,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7360,7 +7387,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7376,7 +7403,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7392,7 +7419,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7408,7 +7435,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7424,7 +7451,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7440,7 +7467,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7456,7 +7483,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7472,7 +7499,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7488,7 +7515,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7504,7 +7531,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7520,7 +7547,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7536,7 +7563,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7552,7 +7579,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7568,7 +7595,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7584,7 +7611,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7600,7 +7627,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7616,7 +7643,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7632,7 +7659,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7648,7 +7675,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7664,7 +7691,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7680,7 +7707,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7696,7 +7723,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7712,7 +7739,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -7743,10 +7770,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7769,28 +7796,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7803,7 +7830,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7832,7 +7859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>24.516999999999999</v>
       </c>
@@ -7856,17 +7883,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7887,7 +7914,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7914,7 +7941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7940,7 +7967,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7966,7 +7993,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7992,7 +8019,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8018,7 +8045,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8044,7 +8071,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8070,7 +8097,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8096,7 +8123,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8116,7 +8143,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8136,7 +8163,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8156,7 +8183,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8177,7 +8204,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8198,7 +8225,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8219,7 +8246,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8240,7 +8267,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8261,7 +8288,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8282,7 +8309,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8303,7 +8330,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8324,7 +8351,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8345,7 +8372,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8366,7 +8393,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8387,7 +8414,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8408,7 +8435,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8429,7 +8456,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8450,7 +8477,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8471,7 +8498,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8492,7 +8519,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8513,7 +8540,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8534,7 +8561,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8555,7 +8582,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8576,7 +8603,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8585,7 +8612,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8594,7 +8621,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8603,7 +8630,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8612,7 +8639,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8621,7 +8648,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8630,7 +8657,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8639,7 +8666,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8648,7 +8675,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8657,7 +8684,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8666,7 +8693,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8675,7 +8702,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8684,7 +8711,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8693,7 +8720,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8702,7 +8729,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8711,7 +8738,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8720,7 +8747,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8729,7 +8756,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8738,7 +8765,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8747,7 +8774,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8756,7 +8783,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8765,7 +8792,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8774,7 +8801,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8783,7 +8810,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8792,7 +8819,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8801,7 +8828,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8810,7 +8837,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8819,7 +8846,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8828,7 +8855,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8837,7 +8864,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEREÑA, VERGILIO.xlsx
+++ b/NEW HR/PEREÑA, VERGILIO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA5F0FA-54A0-4CAE-B531-076EBEABB008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -284,11 +285,23 @@
   <si>
     <t>11/8-10, 15-17/2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/30-31/2024</t>
+  </si>
+  <si>
+    <t>1/23-24/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1220,7 +1233,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1276,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1340,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1400,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1466,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1529,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1627,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1686,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1751,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1794,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1869,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2055,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2121,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2179,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2245,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2301,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2376,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2419,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2485,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2541,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2620,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2624,25 +2637,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2654,25 +2667,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K124" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2979,7 +2992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2989,7 +3002,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2997,34 +3010,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A62" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3045,7 +3058,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3065,7 +3078,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3087,7 +3100,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3095,7 +3108,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3108,7 +3121,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3125,7 +3138,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3169,7 +3182,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>45</v>
+        <v>46.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3179,12 +3192,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>65</v>
+        <v>66.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3206,7 +3219,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3226,7 +3239,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3246,7 +3259,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3266,7 +3279,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="49"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3286,7 +3299,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3306,7 +3319,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3326,7 +3339,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="50"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -3344,7 +3357,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3364,7 +3377,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3384,7 +3397,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3404,7 +3417,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3424,7 +3437,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3444,7 +3457,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3464,7 +3477,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="49"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3484,7 +3497,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="49"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44044</v>
       </c>
@@ -3504,7 +3517,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44075</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -3550,7 +3563,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44136</v>
       </c>
@@ -3570,7 +3583,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -3594,7 +3607,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3612,7 +3625,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -3632,7 +3645,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -3652,7 +3665,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44256</v>
       </c>
@@ -3672,7 +3685,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44287</v>
       </c>
@@ -3692,7 +3705,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44317</v>
       </c>
@@ -3712,7 +3725,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44348</v>
       </c>
@@ -3732,7 +3745,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44378</v>
       </c>
@@ -3752,7 +3765,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44409</v>
       </c>
@@ -3772,7 +3785,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44440</v>
       </c>
@@ -3792,7 +3805,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44470</v>
       </c>
@@ -3812,7 +3825,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44501</v>
       </c>
@@ -3832,7 +3845,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44531</v>
       </c>
@@ -3856,7 +3869,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>48</v>
       </c>
@@ -3874,7 +3887,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44562</v>
       </c>
@@ -3894,7 +3907,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44593</v>
       </c>
@@ -3914,7 +3927,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44621</v>
       </c>
@@ -3934,7 +3947,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="49"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44652</v>
       </c>
@@ -3954,7 +3967,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44682</v>
       </c>
@@ -3974,7 +3987,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44713</v>
       </c>
@@ -3994,7 +4007,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44743</v>
       </c>
@@ -4014,7 +4027,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44774</v>
       </c>
@@ -4034,7 +4047,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44805</v>
       </c>
@@ -4054,7 +4067,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44835</v>
       </c>
@@ -4074,7 +4087,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44866</v>
       </c>
@@ -4094,7 +4107,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44896</v>
       </c>
@@ -4118,7 +4131,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>72</v>
       </c>
@@ -4136,9 +4149,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4156,9 +4169,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>69</v>
@@ -4182,9 +4195,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>75</v>
@@ -4204,9 +4217,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4224,9 +4237,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4244,9 +4257,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4264,9 +4277,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4284,9 +4297,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4304,9 +4317,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4324,9 +4337,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4344,44 +4357,50 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="48" t="s">
+        <v>82</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4396,25 +4415,39 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="39"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="39">
+        <v>2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="20"/>
+      <c r="K70" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="40">
+        <v>45351</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
@@ -4423,13 +4456,19 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="39">
+        <v>2</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="K71" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="40">
+        <v>45382</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4444,8 +4483,10 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40">
+        <v>45412</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4460,8 +4501,10 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="40">
+        <v>45443</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4476,8 +4519,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="40">
+        <v>45473</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4492,8 +4537,10 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>45504</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4508,8 +4555,10 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>45535</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4524,8 +4573,10 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45565</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4540,8 +4591,10 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45596</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4556,8 +4609,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45626</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4572,8 +4627,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45657</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4588,8 +4645,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45688</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4604,8 +4663,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45716</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4620,8 +4681,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45747</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4636,8 +4699,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45777</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4652,8 +4717,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45808</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4668,8 +4735,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45838</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4684,8 +4753,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45869</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4700,8 +4771,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45900</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4716,8 +4789,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45930</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4732,8 +4807,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45961</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4748,8 +4825,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45991</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4764,8 +4843,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>46022</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4780,8 +4861,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>46053</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4796,8 +4879,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>46081</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4812,8 +4897,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>46112</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4828,8 +4915,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>46142</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4844,8 +4933,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>46173</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4860,8 +4951,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>46203</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4876,8 +4969,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>46234</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4892,8 +4987,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>46265</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4908,8 +5005,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>46295</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4924,8 +5023,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>46326</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4940,8 +5041,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>46356</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4956,8 +5059,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>46387</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4972,8 +5077,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>46418</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4988,8 +5095,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>46446</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5004,8 +5113,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>46477</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5020,8 +5131,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>46507</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5036,8 +5149,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>46538</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5052,8 +5167,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>46568</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5068,8 +5185,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>46599</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5084,7 +5203,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5100,7 +5219,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5116,7 +5235,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5132,7 +5251,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5148,7 +5267,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5164,7 +5283,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5180,7 +5299,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5196,7 +5315,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5212,7 +5331,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5228,7 +5347,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5244,7 +5363,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5260,7 +5379,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5276,7 +5395,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5292,7 +5411,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5308,7 +5427,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5324,7 +5443,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5340,7 +5459,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5356,7 +5475,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5372,7 +5491,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5388,7 +5507,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5404,21 +5523,37 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
       <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="41"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5435,10 +5570,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5461,34 +5596,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A47" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5509,7 +5644,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5529,7 +5664,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5551,7 +5686,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5559,7 +5694,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5572,7 +5707,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -5589,7 +5724,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5624,7 +5759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5648,7 +5783,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5670,7 +5805,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43709</v>
       </c>
@@ -5694,7 +5829,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43739</v>
       </c>
@@ -5718,7 +5853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -5740,7 +5875,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43770</v>
       </c>
@@ -5764,7 +5899,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43800</v>
       </c>
@@ -5788,7 +5923,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>50</v>
@@ -5810,7 +5945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>46</v>
       </c>
@@ -5828,7 +5963,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -5852,7 +5987,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>55</v>
@@ -5872,7 +6007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43862</v>
       </c>
@@ -5896,7 +6031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43891</v>
       </c>
@@ -5918,7 +6053,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43983</v>
       </c>
@@ -5942,7 +6077,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44013</v>
       </c>
@@ -5966,7 +6101,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44044</v>
       </c>
@@ -5990,7 +6125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44075</v>
       </c>
@@ -6014,7 +6149,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44105</v>
       </c>
@@ -6038,7 +6173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>50</v>
@@ -6060,7 +6195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -6082,7 +6217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44166</v>
       </c>
@@ -6106,7 +6241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>47</v>
       </c>
@@ -6124,7 +6259,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44197</v>
       </c>
@@ -6148,7 +6283,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44228</v>
       </c>
@@ -6172,7 +6307,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>49</v>
@@ -6194,7 +6329,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44378</v>
       </c>
@@ -6218,7 +6353,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44531</v>
       </c>
@@ -6242,7 +6377,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>48</v>
       </c>
@@ -6260,7 +6395,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44562</v>
       </c>
@@ -6284,7 +6419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44593</v>
       </c>
@@ -6308,7 +6443,7 @@
         <v>44606</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44621</v>
       </c>
@@ -6332,7 +6467,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44652</v>
       </c>
@@ -6356,7 +6491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44713</v>
       </c>
@@ -6378,7 +6513,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>49</v>
@@ -6400,7 +6535,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44835</v>
       </c>
@@ -6424,7 +6559,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>49</v>
@@ -6444,7 +6579,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>72</v>
       </c>
@@ -6459,7 +6594,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44927</v>
       </c>
@@ -6480,7 +6615,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44958</v>
       </c>
@@ -6501,7 +6636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44986</v>
       </c>
@@ -6522,7 +6657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>59</v>
@@ -6539,7 +6674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45017</v>
       </c>
@@ -6557,7 +6692,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45047</v>
       </c>
@@ -6575,7 +6710,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45078</v>
       </c>
@@ -6597,7 +6732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -6619,7 +6754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45170</v>
       </c>
@@ -6643,7 +6778,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>45231</v>
       </c>
@@ -6667,7 +6802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6683,7 +6818,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6699,7 +6834,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6715,7 +6850,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6731,7 +6866,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6747,7 +6882,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6763,7 +6898,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6779,7 +6914,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6795,7 +6930,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6811,7 +6946,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6827,7 +6962,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6843,7 +6978,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6859,7 +6994,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6875,7 +7010,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6891,7 +7026,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6907,7 +7042,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6923,7 +7058,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6939,7 +7074,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6955,7 +7090,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6971,7 +7106,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6987,7 +7122,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7003,7 +7138,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7019,7 +7154,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7035,7 +7170,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7051,7 +7186,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7067,7 +7202,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7083,7 +7218,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7099,7 +7234,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7115,7 +7250,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7131,7 +7266,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7147,7 +7282,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7163,7 +7298,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7179,7 +7314,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7195,7 +7330,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7211,7 +7346,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7227,7 +7362,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7243,7 +7378,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7259,7 +7394,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7275,7 +7410,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7291,7 +7426,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7307,7 +7442,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7323,7 +7458,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7339,7 +7474,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7355,7 +7490,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7371,7 +7506,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7387,7 +7522,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7403,7 +7538,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7419,7 +7554,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7435,7 +7570,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7451,7 +7586,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7467,7 +7602,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7483,7 +7618,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7499,7 +7634,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7515,7 +7650,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7531,7 +7666,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7547,7 +7682,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7563,7 +7698,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7579,7 +7714,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7595,7 +7730,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7611,7 +7746,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7627,7 +7762,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7643,7 +7778,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7659,7 +7794,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7675,7 +7810,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7691,7 +7826,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7707,7 +7842,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7723,7 +7858,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7739,7 +7874,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7755,7 +7890,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -7786,10 +7921,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7812,28 +7947,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -7846,7 +7981,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7875,7 +8010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>24.516999999999999</v>
       </c>
@@ -7899,17 +8034,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7930,7 +8065,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7957,7 +8092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7983,7 +8118,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8009,7 +8144,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8035,7 +8170,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8061,7 +8196,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8087,7 +8222,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8113,7 +8248,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8139,7 +8274,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8159,7 +8294,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8179,7 +8314,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8199,7 +8334,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8220,7 +8355,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8241,7 +8376,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8262,7 +8397,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8283,7 +8418,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8304,7 +8439,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8325,7 +8460,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8346,7 +8481,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8367,7 +8502,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8388,7 +8523,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8409,7 +8544,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8430,7 +8565,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8451,7 +8586,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8472,7 +8607,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8493,7 +8628,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8514,7 +8649,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8535,7 +8670,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8556,7 +8691,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8577,7 +8712,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8598,7 +8733,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8619,7 +8754,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8628,7 +8763,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8637,7 +8772,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8646,7 +8781,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8655,7 +8790,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8664,7 +8799,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8673,7 +8808,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8682,7 +8817,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8691,7 +8826,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8700,7 +8835,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8709,7 +8844,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8718,7 +8853,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8727,7 +8862,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8736,7 +8871,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8745,7 +8880,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8754,7 +8889,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8763,7 +8898,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8772,7 +8907,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8781,7 +8916,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8790,7 +8925,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8799,7 +8934,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8808,7 +8943,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8817,7 +8952,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8826,7 +8961,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8835,7 +8970,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8844,7 +8979,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8853,7 +8988,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8862,7 +8997,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8871,7 +9006,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8880,7 +9015,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
